--- a/Internship01072020/UoSM allowance claim form.xlsx
+++ b/Internship01072020/UoSM allowance claim form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsung\Google Drive\blockchain\internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hank Bot\Desktop\LoRaBlockchain\Internship01072020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B93D2B0-4CD5-427B-A7F6-CFA98C6845B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D211F36-8098-4E0A-B492-F5FB757D4C39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -103,15 +103,18 @@
       <t>,  RM500/month (sub-project code:5165)</t>
     </r>
   </si>
+  <si>
+    <t>Chia Tze Hank</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-14409]d\ mmmm\,\ yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-14409]d\ mmmm\,\ yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -313,7 +316,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -333,9 +336,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -354,10 +357,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -380,7 +383,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -748,21 +751,21 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" customWidth="1"/>
+    <col min="4" max="4" width="42.54296875" customWidth="1"/>
+    <col min="5" max="5" width="23.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -770,7 +773,7 @@
       <c r="E1" s="19"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="14"/>
@@ -779,7 +782,7 @@
       <c r="F2" s="23"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
         <v>12</v>
       </c>
@@ -794,7 +797,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
       <c r="B4" s="22"/>
       <c r="C4" s="14"/>
@@ -805,7 +808,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="14"/>
@@ -816,7 +819,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="22"/>
       <c r="C6" s="14"/>
@@ -827,7 +830,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A7" s="21"/>
       <c r="B7" s="40" t="s">
         <v>3</v>
@@ -841,7 +844,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
       <c r="C8" s="14"/>
@@ -852,7 +855,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="14"/>
@@ -863,7 +866,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="26"/>
       <c r="B10" s="27" t="s">
         <v>4</v>
@@ -873,7 +876,7 @@
       <c r="E10" s="28"/>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="26"/>
       <c r="B11" s="30"/>
       <c r="C11" s="28"/>
@@ -881,7 +884,7 @@
       <c r="E11" s="28"/>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
       <c r="B12" s="30"/>
       <c r="C12" s="28"/>
@@ -889,27 +892,31 @@
       <c r="E12" s="28"/>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26"/>
       <c r="B13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="29"/>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
       <c r="B14" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="38">
+        <v>44015</v>
+      </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="26"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -917,7 +924,7 @@
       <c r="E15" s="28"/>
       <c r="F15" s="29"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
       <c r="B16" s="32"/>
       <c r="C16" s="28"/>
@@ -925,7 +932,7 @@
       <c r="E16" s="28"/>
       <c r="F16" s="29"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="26"/>
       <c r="B17" s="44" t="s">
         <v>11</v>
@@ -939,7 +946,7 @@
       </c>
       <c r="F17" s="29"/>
     </row>
-    <row r="18" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26"/>
       <c r="B18" s="42" t="s">
         <v>15</v>
@@ -951,7 +958,7 @@
       </c>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="26"/>
       <c r="B19" s="42"/>
       <c r="C19" s="43"/>
@@ -959,7 +966,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="29"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="26"/>
       <c r="B20" s="42"/>
       <c r="C20" s="43"/>
@@ -967,7 +974,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="26"/>
       <c r="B21" s="17"/>
       <c r="C21" s="28"/>
@@ -975,7 +982,7 @@
       <c r="E21" s="28"/>
       <c r="F21" s="29"/>
     </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26"/>
       <c r="B22" s="17" t="s">
         <v>2</v>
@@ -987,7 +994,7 @@
       <c r="E22" s="39"/>
       <c r="F22" s="29"/>
     </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26"/>
       <c r="B23" s="17" t="s">
         <v>5</v>
@@ -997,7 +1004,7 @@
       <c r="E23" s="39"/>
       <c r="F23" s="29"/>
     </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
       <c r="B24" s="17"/>
       <c r="C24" s="16"/>
@@ -1005,7 +1012,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="26"/>
       <c r="B25" s="17"/>
       <c r="C25" s="28"/>
@@ -1013,7 +1020,7 @@
       <c r="E25" s="28"/>
       <c r="F25" s="29"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="26"/>
       <c r="B26" s="17" t="s">
         <v>10</v>
@@ -1023,7 +1030,7 @@
       <c r="E26" s="28"/>
       <c r="F26" s="29"/>
     </row>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="26"/>
       <c r="B27" s="17" t="s">
         <v>6</v>
@@ -1033,7 +1040,7 @@
       <c r="E27" s="28"/>
       <c r="F27" s="29"/>
     </row>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26"/>
       <c r="B28" s="17" t="s">
         <v>7</v>
@@ -1043,7 +1050,7 @@
       <c r="E28" s="28"/>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="17" t="s">
         <v>8</v>
@@ -1053,7 +1060,7 @@
       <c r="E29" s="28"/>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="26"/>
       <c r="B30" s="17"/>
       <c r="C30" s="28"/>
@@ -1061,7 +1068,7 @@
       <c r="E30" s="28"/>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="33"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>

--- a/Internship01072020/UoSM allowance claim form.xlsx
+++ b/Internship01072020/UoSM allowance claim form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hank Bot\Desktop\LoRaBlockchain\Internship01072020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D211F36-8098-4E0A-B492-F5FB757D4C39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0485C1-B559-47F5-9239-2C7348D6C38B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -406,6 +406,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -751,8 +754,8 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -952,7 +955,9 @@
         <v>15</v>
       </c>
       <c r="C18" s="43"/>
-      <c r="D18" s="38"/>
+      <c r="D18" s="38">
+        <v>44018</v>
+      </c>
       <c r="E18" s="4">
         <v>500</v>
       </c>
@@ -999,9 +1004,11 @@
       <c r="B23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
+      <c r="C23" s="46">
+        <v>880010027476</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
